--- a/stable2/excelLib.xlsx
+++ b/stable2/excelLib.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\partha\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8400"/>
+    <workbookView windowWidth="14565" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -17,13 +12,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:J10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
-  <si>
-    <t>SpecialFunctions</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+  <si>
+    <t>1,1</t>
   </si>
   <si>
     <t>SpecialActionType</t>
@@ -62,83 +58,13 @@
     <t>http://localhost/login.do</t>
   </si>
   <si>
-    <t>sendkeys</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>sheetName</t>
-  </si>
-  <si>
-    <t>addToSuite</t>
-  </si>
-  <si>
-    <t>browserType</t>
-  </si>
-  <si>
-    <t>statusOfExecution</t>
-  </si>
-  <si>
-    <t>execution Iteration count</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>FireFox</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>getUrl</t>
-  </si>
-  <si>
-    <t>logging into given URL</t>
+    <t>PASS</t>
   </si>
   <si>
     <t>find element</t>
   </si>
   <si>
-    <t>typing password</t>
-  </si>
-  <si>
-    <t>isdispalayed</t>
-  </si>
-  <si>
-    <t>verified username presence</t>
-  </si>
-  <si>
     <t>click</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>FAIL no such element: Unable to locate element: {"method":"partial link text","selector":"Users"}
-  (Session info: chrome=54.0.2840.99)
-  (Driver info: chromedriver=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf),platform=Windows NT 6.3.9600 x86) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 5.08 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '2aa21c1', time: '2016-08-02 14:59:43 -0700'
-System info: host: 'Sai', ip: '127.0.0.1', os.name: 'Windows 8.1', os.arch: 'x86', os.version: '6.3', java.version: '1.8.0_101'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf), userDataDir=C:\Users\partha\AppData\Local\Temp\scoped_dir6748_10232}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=54.0.2840.99, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 1203db8e4f2e46c63a95d696aeddabd8
-*** Element info: {Using=partial link text, value=Users}</t>
   </si>
   <si>
     <t>FAIL no such element: Unable to locate element: {"method":"partial link text","selector":"Users"}
@@ -153,13 +79,75 @@
 Session ID: e54e6bc2a5b49898ed92ff3b1acadd57
 *** Element info: {Using=partial link text, value=Users}</t>
   </si>
+  <si>
+    <t>sendkeys</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>sheetName</t>
+  </si>
+  <si>
+    <t>addToSuite</t>
+  </si>
+  <si>
+    <t>browserType</t>
+  </si>
+  <si>
+    <t>statusOfExecution</t>
+  </si>
+  <si>
+    <t>execution Iteration count</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>FireFox</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>getUrl</t>
+  </si>
+  <si>
+    <t>logging into given URL</t>
+  </si>
+  <si>
+    <t>typing password</t>
+  </si>
+  <si>
+    <t>isdispalayed</t>
+  </si>
+  <si>
+    <t>verified username presence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +163,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,18 +324,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -219,9 +544,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -238,21 +805,86 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFAF3727"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1" tint="0.0499893185216834"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9"/>
+          <bgColor theme="9" tint="-0.249946592608417"/>
         </patternFill>
       </fill>
     </dxf>
@@ -266,14 +898,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -301,14 +926,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFAF3727"/>
+          <bgColor theme="9" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -322,38 +954,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
+          <bgColor rgb="FFAF3727"/>
         </patternFill>
       </fill>
     </dxf>
@@ -361,17 +962,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
-      <color rgb="FFAF3727"/>
+      <color rgb="00AF3727"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -632,23 +1225,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="25.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="11.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="18.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="25.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -683,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -694,100 +1288,100 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" t="s">
-        <v>26</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -795,148 +1389,119 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",I1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",H1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 B4:B8 C9:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 C2:C4 C9:C10">
       <formula1>"geturl,find element"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" stopIfTrue="1" operator="containsText" id="{19CB9EA5-0AA1-4370-BEDA-C9DF438A52DE}">
-            <xm:f>NOT(ISERROR(SEARCH("pass",G1)))</xm:f>
-            <xm:f>"pass"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor theme="9"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" stopIfTrue="1" operator="containsText" id="{6D7118E7-3E05-4DCF-92AB-9A1395421FDE}">
-            <xm:f>NOT(ISERROR(SEARCH("fail",G1)))</xm:f>
-            <xm:f>"fail"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <bgColor rgb="FFAF3727"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G1:G1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="13.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="18.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="25.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -944,42 +1509,44 @@
     <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="equal">
       <formula>"SKIPPED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="STATUS" prompt="Should add to suite?" sqref="B2:B3">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please select broser type" sqref="C2:C3">
       <formula1>"FireFox,Chrome,Internet Explorer,Phantom JS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="STATUS" prompt="Should add to suite?" sqref="B2:B3">
-      <formula1>"YES,NO"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="2.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="2.85714285714286" customWidth="1"/>
+    <col min="2" max="3" width="13.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="25.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
+    <col min="10" max="10" width="28.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -987,10 +1554,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -1000,85 +1567,85 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
       <c r="C4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
       <c r="C14" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",H1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G4">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1086,13 +1653,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select action type" sqref="B1 C1 C2 B3 C3">
       <formula1>"close,geturl,find element,verifyelement,isdisplayed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Select action type" sqref="B2 C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select action type" sqref="B2 C14" showDropDown="1">
       <formula1>"close,geturl,find element,verifyelement,isdisplayed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3">
       <formula1>"sendkeys,click,isdisplayed"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/stable2/excelLib.xlsx
+++ b/stable2/excelLib.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14565" windowHeight="6705" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15420" windowHeight="6390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="suite" sheetId="2" r:id="rId2"/>
     <sheet name="specialchar" sheetId="3" r:id="rId3"/>
+    <sheet name="dragDrop" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
-  <si>
-    <t>1,1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
   <si>
     <t>SpecialActionType</t>
   </si>
@@ -66,19 +64,6 @@
     <t>click</t>
   </si>
   <si>
-    <t>FAIL no such element: Unable to locate element: {"method":"partial link text","selector":"Users"}
-  (Session info: chrome=54.0.2840.99)
-  (Driver info: chromedriver=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf),platform=Windows NT 6.3.9600 x86) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 5.13 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '2aa21c1', time: '2016-08-02 14:59:43 -0700'
-System info: host: 'Sai', ip: '127.0.0.1', os.name: 'Windows 8.1', os.arch: 'x86', os.version: '6.3', java.version: '1.8.0_101'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf), userDataDir=C:\Users\partha\AppData\Local\Temp\scoped_dir3984_14622}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=54.0.2840.99, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: e54e6bc2a5b49898ed92ff3b1acadd57
-*** Element info: {Using=partial link text, value=Users}</t>
-  </si>
-  <si>
     <t>sendkeys</t>
   </si>
   <si>
@@ -106,57 +91,59 @@
     <t>login</t>
   </si>
   <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>specialchar</t>
+  </si>
+  <si>
+    <t>checkalllinks</t>
+  </si>
+  <si>
+    <t>checkallimages</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>FireFox</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>specialchar</t>
-  </si>
-  <si>
-    <t>sleep</t>
+    <t>file:///E:/webs/hero/the-internet.herokuapp.com/drag_and_drop.html</t>
+  </si>
+  <si>
+    <t>drag drop by element</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>dragDrop</t>
   </si>
   <si>
     <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>FAIL no such element: Unable to locate element: {"method":"partial link text","selector":"Users"}
-  (Session info: chrome=56.0.2924.87)
-  (Driver info: chromedriver=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 99 milliseconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: 'unknown', revision: '86a5d70', time: '2017-02-16 07:47:51 -0800'
-System info: host: 'sai', ip: '127.0.0.1', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_121'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf), userDataDir=C:\Users\partha\AppData\Local\Temp\scoped_dir5548_25946}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=56.0.2924.87, platform=WIN8_1, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 532f0721125f5a419ca11e6c6d8b0825
-*** Element info: {Using=partial link text, value=Users}</t>
-  </si>
-  <si>
-    <t>as!@#*&amp;%545</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,23 +211,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -248,7 +238,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -633,204 +637,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>5000</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",I1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",H1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B8 C2:C4 C9:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C2 C4 B3:B7">
       <formula1>"geturl,find element"</formula1>
     </dataValidation>
   </dataValidations>
@@ -840,91 +827,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
       <formula>"SKIPPED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="STATUS" prompt="Should add to suite?" sqref="B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="STATUS" prompt="Should add to suite?" sqref="B2:B4">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please select broser type" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please select broser type" sqref="C2:C4">
       <formula1>"FireFox,Chrome,Internet Explorer,Phantom JS"</formula1>
     </dataValidation>
   </dataValidations>
@@ -935,142 +933,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
       <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6">
-        <v>5000</v>
-      </c>
-      <c r="F6">
-        <v>5000</v>
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:J1">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="I1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",I1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",H1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1078,10 +1112,103 @@
       <formula1>"geturl,find element"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"geturl,find element"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stable2/excelLib.xlsx
+++ b/stable2/excelLib.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15420" windowHeight="6390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16425" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="dragDrop" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>SpecialActionType</t>
   </si>
@@ -125,6 +126,9 @@
   </si>
   <si>
     <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>debug</t>
   </si>
 </sst>
 </file>
@@ -639,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -694,9 +698,6 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -711,9 +712,6 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
@@ -728,9 +726,6 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
@@ -745,9 +740,6 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
@@ -759,9 +751,6 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
@@ -773,9 +762,6 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="C8" t="s">
@@ -784,19 +770,10 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>5000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/stable2/excelLib.xlsx
+++ b/stable2/excelLib.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16425" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16425" windowHeight="6390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="dragDrop" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t>SpecialActionType</t>
   </si>
@@ -643,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
@@ -910,10 +909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1049,16 +1048,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="I1">
     <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
@@ -1076,7 +1065,7 @@
       <formula>NOT(ISERROR(SEARCH("pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G1:G7 G20:G1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",G1)))</formula>
     </cfRule>
@@ -1096,17 +1085,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1137,7 +1125,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" t="s">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
@@ -1148,7 +1139,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="E3">
@@ -1162,7 +1153,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D4">
@@ -1173,16 +1164,24 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 C6">
       <formula1>"geturl,find element"</formula1>
     </dataValidation>
   </dataValidations>

--- a/stable2/excelLib.xlsx
+++ b/stable2/excelLib.xlsx
@@ -11,13 +11,14 @@
     <sheet name="suite" sheetId="2" r:id="rId2"/>
     <sheet name="specialchar" sheetId="3" r:id="rId3"/>
     <sheet name="dragDrop" sheetId="4" r:id="rId4"/>
+    <sheet name="all func" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
   <si>
     <t>SpecialActionType</t>
   </si>
@@ -128,6 +129,51 @@
   </si>
   <si>
     <t>debug</t>
+  </si>
+  <si>
+    <t>stdclick</t>
+  </si>
+  <si>
+    <t>stand alone click</t>
+  </si>
+  <si>
+    <t>sikuli_rowToRefer</t>
+  </si>
+  <si>
+    <t>stddoubleclick</t>
+  </si>
+  <si>
+    <t>stand alone double click</t>
+  </si>
+  <si>
+    <t>detalis</t>
+  </si>
+  <si>
+    <t>stdrightclick</t>
+  </si>
+  <si>
+    <t>stdtype</t>
+  </si>
+  <si>
+    <t>image path row num from from object repo</t>
+  </si>
+  <si>
+    <t>clickenter</t>
+  </si>
+  <si>
+    <t>selectall</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>robotupload</t>
+  </si>
+  <si>
+    <t>path row num from from object repo</t>
   </si>
 </sst>
 </file>
@@ -241,7 +287,111 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -777,18 +927,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",I1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",H1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -876,21 +1026,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="equal">
       <formula>"SKIPPED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -912,7 +1062,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1050,26 +1200,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",I1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("fail",H1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G7 G20:G1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1187,4 +1337,170 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("fail",I1)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("pass",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("fail",H1)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("pass",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>